--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2143.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2143.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.788357345199944</v>
+        <v>0.6133912801742554</v>
       </c>
       <c r="B1">
-        <v>3.999172071444499</v>
+        <v>1.355645537376404</v>
       </c>
       <c r="C1">
-        <v>2.480963192765905</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.8891780811386886</v>
+        <v>2.35623025894165</v>
       </c>
       <c r="E1">
-        <v>0.5953890754328778</v>
+        <v>1.364726424217224</v>
       </c>
     </row>
   </sheetData>
